--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\RPEpUACE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="80" windowWidth="14860" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -99,88 +104,16 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Rebound Emis Factor</t>
-  </si>
-  <si>
     <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
   </si>
   <si>
-    <t>IFM reduces the amount of timber provided by a given area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoided conversion in a particular place might lead to conversion somewhere else. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unlike offset protocols, GGRF reduction project accounting is not required to be shown to be additional.  </t>
-  </si>
-  <si>
-    <t>IFM protocol from CARB instructs accounting for this through a 20% reduction in the estimated benefit.</t>
-  </si>
-  <si>
-    <t>From page 69</t>
-  </si>
-  <si>
-    <t>https://www.arb.ca.gov/cc/capandtrade/protocols/usforest/forestprotocol2015.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to apply across the board because current model structure entails a single value across activities. </t>
-  </si>
-  <si>
-    <t>https://pdfs.semanticscholar.org/fe83/509a380e1264be2359b52539c341a3b66968.pdf</t>
-  </si>
-  <si>
-    <t>The offset quantification protcols themselves are designed to handle (see below on IFM protocol).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetland restoration keeping some land from crop supply might lead to the prospective buyer simply looking elsewhere. </t>
-  </si>
-  <si>
-    <t>They are not required to account for secondary effects as offset prjects are.</t>
-  </si>
-  <si>
-    <t>REF (reforestation projects) appear to be mainly taking place on land already state owned.</t>
-  </si>
-  <si>
-    <t>Thus REF projects might raise less concern, if the supply of land for these projects is sufficient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As well, for GGRF funded projects, these are not substituting for reductions under cap-and-trade, so it </t>
-  </si>
-  <si>
-    <t>makes sense that additionality would be given less attention.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, note that in strict inventory terms, only in-state effects would be considered. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imported electricity is considered in the statewide inventory, but not other emissions from </t>
-  </si>
-  <si>
-    <t xml:space="preserve">outside state borders. </t>
-  </si>
-  <si>
-    <t>The potential for reversal due to fire is directly factored in by PNAS (Cameron et al) paper in technical potentials.</t>
-  </si>
-  <si>
-    <t>However, there may be some soil emissions in some instances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The US model calculates a value for foresty fires and soil emissions.  The CA EPS incorporates the soil component. </t>
-  </si>
-  <si>
-    <t>US EPS model documentation states:</t>
-  </si>
-  <si>
-    <t>IFM offset protocol excerpt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not included in CA EPS because these are primarily due to forest fires and the CA EPS accounts for this directly in technical potentials. </t>
+    <t>Rebound Emis Factor (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,18 +139,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -241,8 +168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -254,89 +179,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>311475</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>89230</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="8318500"/>
-          <a:ext cx="6331275" cy="6420180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533741</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>38282</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="14846300"/>
-          <a:ext cx="6629741" cy="3537132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,20 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,172 +492,54 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -821,35 +548,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2009</v>
       </c>
@@ -866,7 +590,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -886,42 +610,27 @@
         <v>-871026</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>234</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>190</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>584</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>627</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>233</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -941,7 +650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -966,7 +675,7 @@
         <v>-2.6750062569888842E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1003,21 +712,21 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1089,15 +798,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <f>-AVERAGE(Data!B8:F8)</f>
+        <v>4.2997168577917945E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +816,7 @@
         <v>3.5003753313133949E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/rpepuace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-california\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F92AE-FC21-0D4A-936B-362E8F86FCEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941C7E4-31FD-48AD-B888-7025CDC5C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13455" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="About" sheetId="4" r:id="rId1"/>
+    <sheet name="Data" sheetId="5" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-4, Table 6-3</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -116,10 +110,19 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Page 470, Table 6-3</t>
+  </si>
+  <si>
+    <t>data/file updated:</t>
   </si>
 </sst>
 </file>
@@ -519,239 +522,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D87D418-2159-4E13-81ED-7D41107B32BC}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{CDA1410F-ADEC-4605-951E-E83E63C5B9CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A64F3CF-34D6-4281-835E-34695CCFD3F5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-791695</v>
+      </c>
+      <c r="C4">
+        <v>-855998</v>
+      </c>
+      <c r="D4">
+        <v>-792046</v>
+      </c>
+      <c r="E4">
+        <v>-824885</v>
+      </c>
+      <c r="F4">
+        <v>-812695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>663</v>
+      </c>
+      <c r="C5">
+        <v>308</v>
+      </c>
+      <c r="D5">
+        <v>614</v>
+      </c>
+      <c r="E5">
+        <v>552</v>
+      </c>
+      <c r="F5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f>B5/B4</f>
+        <v>-8.3744371254081433E-4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="0">C5/C4</f>
+        <v>-3.5981392479888971E-4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-7.7520750057446164E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-6.6918418931123734E-4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-6.7922160220008736E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2009</v>
-      </c>
-      <c r="C3">
-        <v>2010</v>
-      </c>
-      <c r="D3">
-        <v>2011</v>
-      </c>
-      <c r="E3">
-        <v>2012</v>
-      </c>
-      <c r="F3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>-862631</v>
-      </c>
-      <c r="C4">
-        <v>-862025</v>
-      </c>
-      <c r="D4">
-        <v>-872103</v>
-      </c>
-      <c r="E4">
-        <v>-869580</v>
-      </c>
-      <c r="F4">
-        <v>-871026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>234</v>
-      </c>
-      <c r="C5">
-        <v>190</v>
-      </c>
-      <c r="D5">
-        <v>584</v>
-      </c>
-      <c r="E5">
-        <v>627</v>
-      </c>
-      <c r="F5">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>42</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <f>B5/B4</f>
-        <v>-2.7126314727850032E-4</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-2.2041124097328964E-4</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>-6.6964567258683894E-4</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>-7.2103774235837996E-4</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>-2.6750062569888842E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <f>B6/B4</f>
-        <v>-2.5503372821055586E-5</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.3201183260346277E-5</v>
-      </c>
-      <c r="D9" s="3">
+        <v>-4.7998282166743506E-5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="1">C6/C4</f>
+        <v>-2.1028086514220829E-5</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>-4.8159449055902798E-5</v>
-      </c>
-      <c r="E9" s="3">
+        <v>-4.5451905571141073E-5</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>-5.1749120264955494E-5</v>
-      </c>
-      <c r="F9" s="3">
+        <v>-3.8793286336883321E-5</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>-2.6405641163409588E-5</v>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -763,112 +777,112 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>4.2997168577917945E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.6417418588509813E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.5003753313133949E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.8529345186784264E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/rpepuace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/land/RPEpUACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F92AE-FC21-0D4A-936B-362E8F86FCEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEF61A8-45D6-C84C-B2C2-0B1166BF8FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-4, Table 6-3</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -65,12 +59,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -116,10 +104,25 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -530,8 +535,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="5">
-        <v>44307</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,57 +547,57 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -615,139 +625,139 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-862631</v>
+        <v>-791695</v>
       </c>
       <c r="C4">
-        <v>-862025</v>
+        <v>-855998</v>
       </c>
       <c r="D4">
-        <v>-872103</v>
+        <v>-792046</v>
       </c>
       <c r="E4">
-        <v>-869580</v>
+        <v>-824885</v>
       </c>
       <c r="F4">
-        <v>-871026</v>
+        <v>-812695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>234</v>
+        <v>663</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E5">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-2.7126314727850032E-4</v>
+        <v>-8.3744371254081433E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-2.2041124097328964E-4</v>
+        <v>-3.5981392479888971E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6964567258683894E-4</v>
+        <v>-7.7520750057446164E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-7.2103774235837996E-4</v>
+        <v>-6.6918418931123734E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.6750062569888842E-4</v>
+        <v>-6.7922160220008736E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.5503372821055586E-5</v>
+        <v>-4.7998282166743506E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.3201183260346277E-5</v>
+        <v>-2.1028086514220829E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.8159449055902798E-5</v>
+        <v>-4.5451905571141073E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1749120264955494E-5</v>
+        <v>-3.8793286336883321E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6405641163409588E-5</v>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +773,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,12 +783,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -786,7 +796,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -794,7 +804,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -802,7 +812,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -810,7 +820,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -818,7 +828,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -826,7 +836,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -834,7 +844,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -842,7 +852,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -850,25 +860,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>4.2997168577917945E-4</v>
+        <v>6.6417418588509813E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.5003753313133949E-5</v>
+        <v>3.8529345186784264E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-california\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/land/RPEpUACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941C7E4-31FD-48AD-B888-7025CDC5C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEF61A8-45D6-C84C-B2C2-0B1166BF8FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13455" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="4" r:id="rId1"/>
-    <sheet name="Data" sheetId="5" r:id="rId2"/>
+    <sheet name="About" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -59,12 +59,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -113,16 +107,22 @@
     <t>Rebound Emis Factor (dimensionless)</t>
   </si>
   <si>
+    <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
     <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
   </si>
   <si>
     <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
   </si>
   <si>
-    <t>Page 470, Table 6-3</t>
-  </si>
-  <si>
-    <t>data/file updated:</t>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -522,121 +522,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D87D418-2159-4E13-81ED-7D41107B32BC}">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="5">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C1" s="5">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{CDA1410F-ADEC-4605-951E-E83E63C5B9CF}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A64F3CF-34D6-4281-835E-34695CCFD3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2015</v>
       </c>
@@ -653,9 +650,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>-791695</v>
@@ -673,9 +670,9 @@
         <v>-812695</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>663</v>
@@ -693,9 +690,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>38</v>
@@ -713,59 +710,58 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
         <f>B5/B4</f>
         <v>-8.3744371254081433E-4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
         <v>-3.5981392479888971E-4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>-7.7520750057446164E-4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>-6.6918418931123734E-4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>-6.7922160220008736E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
         <f>B6/B4</f>
         <v>-4.7998282166743506E-5</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:G9" si="1">C6/C4</f>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:F9" si="1">C6/C4</f>
         <v>-2.1028086514220829E-5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>-4.5451905571141073E-5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>-3.8793286336883321E-5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -777,112 +773,112 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
         <v>6.6417418588509813E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
         <v>3.8529345186784264E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/land/RPEpUACE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEF61A8-45D6-C84C-B2C2-0B1166BF8FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C39C8-7140-4E9A-800C-6D86145E4794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -71,58 +72,151 @@
     <t>Unit: kt</t>
   </si>
   <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>PM25</t>
+  </si>
+  <si>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>F gases</t>
+  </si>
+  <si>
+    <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>Table 6-3:  Emissions and Removals from Land Use, Land-Use Change, and Forestry by Gas (kt)</t>
+  </si>
+  <si>
+    <t>Gas/Land-Use Category</t>
+  </si>
+  <si>
+    <t>Carbon Stock Change (CO2)a</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land</t>
+  </si>
+  <si>
+    <t>Land Converted to Forest Land</t>
+  </si>
+  <si>
+    <t>Cropland Remaining Cropland</t>
+  </si>
+  <si>
+    <t>Land Converted to Cropland</t>
+  </si>
+  <si>
+    <t>Grassland Remaining Grassland</t>
+  </si>
+  <si>
+    <t>Land Converted to Grassland</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands</t>
+  </si>
+  <si>
+    <t>Land Converted to Wetlands</t>
+  </si>
+  <si>
+    <t>Settlements Remaining Settlements</t>
+  </si>
+  <si>
+    <t>Land Converted to Settlements</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land: Forest Firesb</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land: Drained Organic Soilsd</t>
+  </si>
+  <si>
+    <t>Grassland Remaining Grassland: Grassland Firesc</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands: Flooded Land Remaining Flooded Land</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands: Coastal Wetlands Remaining Coastal Wetlands</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands: Peatlands Remaining Peatlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ </t>
+  </si>
+  <si>
+    <t>Land Converted to Wetlands: Land Converted to Flooded Lands</t>
+  </si>
+  <si>
+    <t>Land Converted to Wetlands: Land Converted to Coastal Wetlands</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land: Forest Soilsf</t>
+  </si>
+  <si>
+    <t>Settlements Remaining Settlements: Settlement Soilse</t>
+  </si>
+  <si>
+    <t>+ Absolute value does not exceed 0.5 kt.</t>
+  </si>
+  <si>
+    <t>a LULUCF Carbon Stock Change is the net C stock change from the following categories: Forest Land Remaining Forest Land, Land Converted to Forest Land, Cropland Remaining Cropland, Land Converted to Cropland, Grassland Remaining Grassland, Land Converted to Grassland, Wetlands Remaining Wetlands, Land Converted to Wetlands, Settlements Remaining Settlements, and Land Converted to Settlements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b Estimates include CH4 and N2O emissions from fires on both Forest Land Remaining Forest Land and Land Converted to Forest Land. </t>
+  </si>
+  <si>
+    <t>c Estimates include CH4 and N2O emissions from drained organic soils on both Forest Land Remaining Forest Land and Land Converted to Forest Land.</t>
+  </si>
+  <si>
+    <t>d Estimates include CH4 and N2O emissions from fires on both Grassland Remaining Grassland and Land Converted to Grassland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Estimates include N2O emissions from N fertilizer additions on both Forest Land Remaining Forest Land and Land Converted to Forest Land. </t>
+  </si>
+  <si>
+    <t>f Estimates include N2O emissions from N fertilizer additions on both Settlements Remaining Settlements and Land Converted to Settlements.</t>
+  </si>
+  <si>
+    <t>Notes: Totals may not sum due to independent rounding. Parentheses indicate net sequestration.</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/ghgemissions/inventory-us-greenhouse-gas-emissions-and-sinks-1990-2020</t>
+  </si>
+  <si>
+    <t>Table 6-3:</t>
+  </si>
+  <si>
+    <t>Inventory of US Greenhouse Gas Emissions Emissions and Sinks: 1990-2020</t>
+  </si>
+  <si>
     <t>CH4/CO2 Ratio</t>
   </si>
   <si>
     <t>N2O/CO2 Ratio</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>PM25</t>
-  </si>
-  <si>
-    <t>SOx</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>F gases</t>
-  </si>
-  <si>
-    <t>Rebound Emis Factor (dimensionless)</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-2:</t>
-  </si>
-  <si>
-    <t>US EPA</t>
-  </si>
-  <si>
-    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
-  </si>
-  <si>
-    <t>Table 6-3</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
 </sst>
 </file>
@@ -183,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,241 +617,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5">
-        <v>44515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2015</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
         <v>2016</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>2017</v>
       </c>
-      <c r="E3">
+      <c r="D4">
         <v>2018</v>
       </c>
-      <c r="F3">
+      <c r="E4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-862045</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-826667</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-809026</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-760820</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-812176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-725571</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-688301</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-677101</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-634824</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-668057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-99454</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-99523</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-99518</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-99520</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-99521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-22731</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-22293</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-16597</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-14544</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-23335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>54107</v>
+      </c>
+      <c r="C9" s="5">
+        <v>54273</v>
+      </c>
+      <c r="D9" s="5">
+        <v>53975</v>
+      </c>
+      <c r="E9" s="5">
+        <v>53935</v>
+      </c>
+      <c r="F9" s="5">
+        <v>54380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7958</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9308</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9670</v>
+      </c>
+      <c r="E10" s="5">
+        <v>12425</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-22553</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-22693</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-22397</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-21485</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-24101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-8046</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-7954</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-7994</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-8034</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-8084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>254</v>
+      </c>
+      <c r="C13">
+        <v>258</v>
+      </c>
+      <c r="D13">
+        <v>265</v>
+      </c>
+      <c r="E13">
+        <v>271</v>
+      </c>
+      <c r="F13">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-123794</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-127679</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-127299</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-126977</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-126128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5">
+        <v>77784</v>
+      </c>
+      <c r="C15" s="5">
+        <v>77938</v>
+      </c>
+      <c r="D15" s="5">
+        <v>77970</v>
+      </c>
+      <c r="E15" s="5">
+        <v>77932</v>
+      </c>
+      <c r="F15" s="5">
+        <v>77895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1131</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1359</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1226</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1022</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>154</v>
+      </c>
+      <c r="C17">
+        <v>381</v>
+      </c>
+      <c r="D17">
+        <v>249</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>796.7</v>
+      </c>
+      <c r="C20">
+        <v>796.8</v>
+      </c>
+      <c r="D20">
+        <v>796.9</v>
+      </c>
+      <c r="E20">
+        <v>796.9</v>
+      </c>
+      <c r="F20">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>153</v>
+      </c>
+      <c r="C21">
+        <v>153</v>
+      </c>
+      <c r="D21">
+        <v>153</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>-791695</v>
-      </c>
-      <c r="C4">
-        <v>-855998</v>
-      </c>
-      <c r="D4">
-        <v>-792046</v>
-      </c>
-      <c r="E4">
-        <v>-824885</v>
-      </c>
-      <c r="F4">
-        <v>-812695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>663</v>
-      </c>
-      <c r="C5">
-        <v>308</v>
-      </c>
-      <c r="D5">
-        <v>614</v>
-      </c>
-      <c r="E5">
-        <v>552</v>
-      </c>
-      <c r="F5">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>36</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <f>B5/B4</f>
-        <v>-8.3744371254081433E-4</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-3.5981392479888971E-4</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B16/B5</f>
+        <v>-1.3119964735019633E-3</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:F43" si="0">C16/C5</f>
+        <v>-1.6439509500197783E-3</v>
+      </c>
+      <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>-7.7520750057446164E-4</v>
-      </c>
-      <c r="E8" s="3">
+        <v>-1.5154024716140149E-3</v>
+      </c>
+      <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6918418931123734E-4</v>
-      </c>
-      <c r="F8" s="3">
+        <v>-1.3432875055860781E-3</v>
+      </c>
+      <c r="F43" s="3">
         <f t="shared" si="0"/>
-        <v>-6.7922160220008736E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <f>B6/B4</f>
-        <v>-4.7998282166743506E-5</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.1028086514220829E-5</v>
-      </c>
-      <c r="D9" s="3">
+        <v>-1.8739780540178485E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B25/B5</f>
+        <v>-2.7840773973516463E-5</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:F44" si="1">C25/C5</f>
+        <v>-4.7177400331693413E-5</v>
+      </c>
+      <c r="D44" s="3">
         <f t="shared" si="1"/>
-        <v>-4.5451905571141073E-5</v>
-      </c>
-      <c r="E9" s="3">
+        <v>-3.8317680766749151E-5</v>
+      </c>
+      <c r="E44" s="3">
         <f t="shared" si="1"/>
-        <v>-3.8793286336883321E-5</v>
-      </c>
-      <c r="F9" s="3">
+        <v>-2.1029941379038406E-5</v>
+      </c>
+      <c r="F44" s="3">
         <f t="shared" si="1"/>
-        <v>-3.9375165344932599E-5</v>
+        <v>-6.2794271192450897E-5</v>
       </c>
     </row>
   </sheetData>
@@ -773,20 +1406,20 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -794,91 +1427,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <f>-AVERAGE(Data!B8:F8)</f>
-        <v>6.6417418588509813E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <f>-AVERAGE(Data!B43:F43)</f>
+        <v>1.5377230909479366E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.8529345186784264E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <f>-AVERAGE(Data!B44:F44)</f>
+        <v>3.9432013528689668E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
